--- a/src/test/resources/testdata/CustomerSuite.xlsx
+++ b/src/test/resources/testdata/CustomerSuite.xlsx
@@ -4,15 +4,92 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="21075" windowHeight="8265"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="21075" windowHeight="8265" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="TestCases" sheetId="1" r:id="rId1"/>
+    <sheet name="TestData" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+  <si>
+    <t>TestCases</t>
+  </si>
+  <si>
+    <t>Runmode</t>
+  </si>
+  <si>
+    <t>AddCustomerTest</t>
+  </si>
+  <si>
+    <t>OpenAccountTest</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>postcode</t>
+  </si>
+  <si>
+    <t>Ivan</t>
+  </si>
+  <si>
+    <t>Ivanov</t>
+  </si>
+  <si>
+    <t>e3r4t5</t>
+  </si>
+  <si>
+    <t>Petr</t>
+  </si>
+  <si>
+    <t>Petrov</t>
+  </si>
+  <si>
+    <t>2af4g5</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>Ivan Ivanov</t>
+  </si>
+  <si>
+    <t>Dollar</t>
+  </si>
+  <si>
+    <t>Petr Petrov</t>
+  </si>
+  <si>
+    <t>Rupee</t>
+  </si>
+  <si>
+    <t>Vasya Vasiliev</t>
+  </si>
+  <si>
+    <t>Test Testov</t>
+  </si>
+  <si>
+    <t>Kalim Neon</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -343,24 +420,178 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/src/test/resources/testdata/CustomerSuite.xlsx
+++ b/src/test/resources/testdata/CustomerSuite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="21075" windowHeight="8265" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="21075" windowHeight="8265"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -422,7 +422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -452,7 +452,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -464,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -538,7 +538,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
